--- a/map_ip_fix.xlsx
+++ b/map_ip_fix.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12217" uniqueCount="3794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12213" uniqueCount="3794">
   <si>
     <t>tencoquan</t>
   </si>
@@ -11409,7 +11409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -11418,23 +11418,38 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11453,8 +11468,14 @@
         <bgColor rgb="FFB7E1CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -11477,11 +11498,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -11515,6 +11562,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11883,10 +11945,10 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D345" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:S1048576"/>
+      <selection pane="bottomRight" activeCell="K355" sqref="K355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24203,25 +24265,25 @@
       </c>
     </row>
     <row r="354" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="8" t="s">
+      <c r="A354" s="17" t="s">
         <v>3248</v>
       </c>
-      <c r="B354" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C354" s="8" t="s">
+      <c r="B354" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C354" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D354" s="8" t="s">
+      <c r="D354" s="17" t="s">
         <v>3249</v>
       </c>
-      <c r="E354" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F354" s="8" t="s">
+      <c r="E354" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F354" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G354" s="8" t="s">
+      <c r="G354" s="17" t="s">
         <v>3249</v>
       </c>
       <c r="H354" s="2" t="s">
@@ -24237,7 +24299,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>75</v>
       </c>
@@ -24259,39 +24321,39 @@
       <c r="G355" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H355" s="2" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J355" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="K355" s="2" t="s">
-        <v>1126</v>
+      <c r="H355" s="20">
+        <v>4800</v>
+      </c>
+      <c r="I355" s="20">
+        <v>449</v>
+      </c>
+      <c r="J355" s="20">
+        <v>48</v>
+      </c>
+      <c r="K355" s="20">
+        <v>33</v>
       </c>
     </row>
     <row r="356" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="7" t="s">
+      <c r="A356" s="19" t="s">
         <v>3250</v>
       </c>
-      <c r="B356" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C356" s="7" t="s">
+      <c r="B356" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C356" s="19" t="s">
         <v>3251</v>
       </c>
-      <c r="D356" s="7" t="s">
+      <c r="D356" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E356" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F356" s="7" t="s">
+      <c r="E356" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F356" s="19" t="s">
         <v>3252</v>
       </c>
-      <c r="G356" s="7" t="s">
+      <c r="G356" s="19" t="s">
         <v>76</v>
       </c>
       <c r="H356" s="2" t="s">
@@ -39971,7 +40033,7 @@
       <c r="G1000" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1 H2:J141 H143:J151 H153:J163 H165:J175 H177:J179 H181:J294 H298:J301 H303:J315 H317:J381 H383:J396 H398:J543 H545:J660 H662:J734 H737:J737">
+  <conditionalFormatting sqref="A1:C1 H2:J141 H143:J151 H153:J163 H165:J175 H177:J179 H181:J294 H298:J301 H303:J315 H317:J354 H383:J396 H398:J543 H545:J660 H662:J734 H737:J737 H356:J381">
     <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
